--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2417121.63422423</v>
+        <v>2560161.247733918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.31732496</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4912936.506603571</v>
+        <v>5172436.019533924</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>325.5800738246913</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>104.0798554863195</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.615746391575342</v>
+        <v>58.07930367370712</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>322.2366735834878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>99.8239417502877</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>140.0647189122986</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>165.0699612865399</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>130.9918599434554</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,13 +1186,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.03559712892665</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.5141848153391</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.0618585165972</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314387</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>360.6006223621148</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314387</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>27.07950026194634</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.97358346682158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.8999204549466</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.17722654850451</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>94.21878984361651</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>100.7890476991255</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>6.162716833690503</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>171.7931177684374</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>61.08641542222659</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199233</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>212.9724585475555</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1245.9111659461</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>1211.809097169927</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375541</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375541</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375541</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375541</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>687.9235674375541</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1288.333161979394</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1288.333161979394</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1287.518111430832</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1272.416052050546</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1268.170332390604</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929011</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,25 +4412,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962708</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962708</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962708</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962708</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962708</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1580.010651986077</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4443,16 +4445,16 @@
         <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1128.095283921369</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>942.7725296545634</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934433</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.62624071431071</v>
+        <v>999.1060810034896</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4494,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>509.9543879393908</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.007286884294</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110075</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1244.497835670077</v>
       </c>
       <c r="X4" t="n">
-        <v>459.8645301191896</v>
+        <v>999.1060810034896</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.4448594332978</v>
+        <v>999.1060810034896</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>642.9684901519726</v>
       </c>
       <c r="C5" t="n">
-        <v>925.2294405284488</v>
+        <v>204.8260173353959</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>103.9937529411659</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>74.25941213986511</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717417</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762193</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720788</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346883</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346883</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346883</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1896.696647757916</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1477.554184337227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1069.26806063688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326441</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.596843794711</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1324.697627839488</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>593.035735694029</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>420.4740241772539</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253023</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609513</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179216</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477213</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055668</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308773</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179204</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765495</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1012.274025098908</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>784.8543544130162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>947.0019290635947</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C8" t="n">
-        <v>912.8998602874221</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>881.0304795022707</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>748.7154694583763</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1393.464329137293</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1392.64927858873</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.547219208445</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y8" t="n">
-        <v>969.2610955080985</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.043550975749</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>509.4818394589739</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>343.6038466604966</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.091239336891</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>966.0648349231828</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>966.0648349231828</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.6451642372911</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004239</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3039.408255925903</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2631.122132225556</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1306.390568510015</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>868.2480956934382</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>504.0050428024131</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M14" t="n">
-        <v>511.3923006645387</v>
+        <v>2528.913654892427</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2964.974180704925</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2140.976262695269</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,13 +5524,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5597,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2571.54679314838</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2325.667346726836</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2047.234345979941</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1760.278837850371</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1488.252433436663</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1242.860678770075</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1015.441008084184</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4294.449917128814</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6785,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3575.440564248063</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988633</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2623.749955382047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.870508960502</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.437508213608</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1812.482000084038</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.45559567033</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1295.063841003742</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>693.7847748441449</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7312,19 +7314,19 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>537.3858472836108</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1785.680098319959</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1347.537625503382</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>911.6278406778265</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>911.6278406778265</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>483.7604110870342</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>82.36257971029812</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162085</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>76.13761321162085</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>980.2717700996191</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1922.474733593427</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N41" t="n">
-        <v>2864.677697087235</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O41" t="n">
-        <v>3806.880660581042</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P41" t="n">
-        <v>3806.880660581042</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581042</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581042</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3444.263710514869</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.408255925902</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2620.265792505213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2211.979668804866</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4549980366087</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>750.8932865198336</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>585.0152937213563</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>415.2572899720936</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162085</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.379401819793</v>
+        <v>2657.217000252138</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.499955398248</v>
+        <v>2411.337553830593</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.066954651353</v>
+        <v>2132.904553083698</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.111446521784</v>
+        <v>1845.949044954129</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.085042108075</v>
+        <v>1845.949044954129</v>
       </c>
       <c r="X43" t="n">
-        <v>1342.693287441488</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.273616755596</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1990.211099348991</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3243.939256954935</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3243.939256954935</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.796793534245</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2416.510669833899</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885521</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>754.071938771777</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732997</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360018</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>236.289898879841</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396094</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368461</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.547214277231</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.074976719101</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8616,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>115.8308884868253</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>750.2469944428863</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>801.4298400828734</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,16 +9245,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,10 +10363,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-6.040902026760094e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>913.2668251393923</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452601</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>806.0025231116374</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.9747162634615</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>70.95006461518506</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>111.4236523045829</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>11.74903456003673</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.9682474305283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>63.4301651713668</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>63.43016517136702</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>280.0761361775254</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.146865729423951</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>96.56253959275671</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>220.7885895408554</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441182.1491030292</v>
+        <v>445409.5899107875</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441182.1491030292</v>
+        <v>446170.7499260961</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362520.1022309661</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362520.102230966</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448363.813669302</v>
+        <v>448363.8136693018</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448363.813669302</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362520.102230966</v>
+        <v>448363.8136693018</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362520.102230966</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
+        <v>509339.9538958881</v>
+      </c>
+      <c r="D2" t="n">
         <v>509339.9538958882</v>
       </c>
-      <c r="D2" t="n">
-        <v>509339.9538958881</v>
-      </c>
       <c r="E2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
+        <v>500514.7049304848</v>
+      </c>
+      <c r="I2" t="n">
+        <v>500514.7049304848</v>
+      </c>
+      <c r="J2" t="n">
         <v>500514.7049304847</v>
-      </c>
-      <c r="I2" t="n">
-        <v>500514.7049304847</v>
-      </c>
-      <c r="J2" t="n">
-        <v>500514.7049304848</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304847</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.1866808237</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501541</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998353</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877191</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622936</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955552</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020266</v>
       </c>
       <c r="F4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020262</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="O4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.0787502026</v>
       </c>
       <c r="P4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020263</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>59424.78813722233</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126291.4786384937</v>
+        <v>126291.4786384939</v>
       </c>
       <c r="C6" t="n">
-        <v>268482.7792982037</v>
+        <v>232306.6743973151</v>
       </c>
       <c r="D6" t="n">
-        <v>268482.7792982036</v>
+        <v>292842.5335521271</v>
       </c>
       <c r="E6" t="n">
-        <v>166960.6191831495</v>
+        <v>212757.2783534399</v>
       </c>
       <c r="F6" t="n">
-        <v>324437.9141052534</v>
+        <v>395112.3875744897</v>
       </c>
       <c r="G6" t="n">
-        <v>305612.5789681204</v>
+        <v>395112.3875744896</v>
       </c>
       <c r="H6" t="n">
+        <v>395112.3875744897</v>
+      </c>
+      <c r="I6" t="n">
+        <v>395112.3875744896</v>
+      </c>
+      <c r="J6" t="n">
+        <v>284097.9222294993</v>
+      </c>
+      <c r="K6" t="n">
+        <v>342066.5329357176</v>
+      </c>
+      <c r="L6" t="n">
+        <v>385720.0858478666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>242912.2166365018</v>
+      </c>
+      <c r="N6" t="n">
         <v>395112.3875744895</v>
       </c>
-      <c r="I6" t="n">
-        <v>395112.3875744895</v>
-      </c>
-      <c r="J6" t="n">
-        <v>284097.9222294994</v>
-      </c>
-      <c r="K6" t="n">
-        <v>395112.3875744895</v>
-      </c>
-      <c r="L6" t="n">
-        <v>395112.3875744895</v>
-      </c>
-      <c r="M6" t="n">
-        <v>263676.1404170701</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>395112.3875744896</v>
       </c>
-      <c r="O6" t="n">
-        <v>324437.9141052533</v>
-      </c>
       <c r="P6" t="n">
-        <v>324437.9141052534</v>
+        <v>395112.3875744896</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483569</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939585</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939585</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939585</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9706131526086</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>5.141139873183477</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>152.5502241698337</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>164.220348010032</v>
+        <v>112.7567907279002</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>111.5243745049231</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>331.7267452270122</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>24.15449395819394</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27786,10 +27788,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>99.35319942466799</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>268.691086801871</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>298.4451374498323</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.8648354028706</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28387,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.479625721185572e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-4.113950559524804e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.17252439128409e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-7.588025165587283e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30523,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30681,7 +30683,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.678833133814022e-12</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30700,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>236.289898879841</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396094</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368461</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.547214277231</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.074976719101</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>115.8308884868253</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>750.2469944428863</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,16 +35892,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>801.4298400828734</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,16 +35965,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,13 +37080,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>-2.986857035790905e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>913.2668251393923</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452601</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>806.0025231116374</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560161.247733918</v>
+        <v>2559636.065364886</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5172436.019533924</v>
+        <v>5172436.019533925</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>244.4726225047817</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>104.0798554863195</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.07930367370712</v>
+        <v>160.2309512811987</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>277.6821005944592</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8239417502877</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>140.0647189122986</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>103.6278879809797</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C8" t="n">
-        <v>165.0699612865399</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5141848153391</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314387</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314387</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946003</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3271,7 +3271,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>112.1673564559252</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633436</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>152.5168019860612</v>
       </c>
       <c r="D40" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>61.08641542222659</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199233</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.9111659461</v>
+        <v>763.0287521501519</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.809097169927</v>
+        <v>334.4470778874203</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.939716384776</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375541</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1288.333161979394</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1288.333161979394</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1287.518111430832</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>1272.416052050546</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.170332390604</v>
+        <v>785.2879185946557</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929011</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,25 +4412,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962708</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962708</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962708</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962708</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962708</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986077</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4445,16 +4445,16 @@
         <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.095283921369</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545634</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934433</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726642</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>999.1060810034896</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,13 +4497,13 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>509.9543879393908</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.007286884294</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110075</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.497835670077</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X4" t="n">
-        <v>999.1060810034896</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="Y4" t="n">
-        <v>999.1060810034896</v>
+        <v>1013.629614209975</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>642.9684901519726</v>
+        <v>1628.888105517823</v>
       </c>
       <c r="C5" t="n">
-        <v>204.8260173353959</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>103.9937529411659</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>74.25941213986511</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947689</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947689</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947689</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947689</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423948</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087171</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717417</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717417</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762193</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720788</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473845</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473845</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346883</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346883</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.552102346883</v>
+        <v>2075.350505591522</v>
       </c>
       <c r="W5" t="n">
-        <v>1896.696647757916</v>
+        <v>1670.495051002555</v>
       </c>
       <c r="X5" t="n">
-        <v>1477.554184337227</v>
+        <v>1655.39299162227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1069.26806063688</v>
+        <v>1651.147271962327</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807697</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.147670417412</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639652</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909189</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070805</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326441</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947689</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993449</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993449</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993449</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993449</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>76.49605974993449</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>76.49605974993449</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>700.596843794711</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1324.697627839488</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813121</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605329</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.035735694029</v>
+        <v>593.0357356940426</v>
       </c>
       <c r="C7" t="n">
-        <v>420.4740241772539</v>
+        <v>420.4740241772676</v>
       </c>
       <c r="D7" t="n">
-        <v>278.9945101244271</v>
+        <v>420.4740241772676</v>
       </c>
       <c r="E7" t="n">
-        <v>278.9945101244271</v>
+        <v>420.4740241772676</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244271</v>
+        <v>243.7669701390238</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244271</v>
+        <v>243.7669701390238</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148016</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947689</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541668</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253023</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932635</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609513</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473845</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179216</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477213</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055668</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308773</v>
+        <v>1816.647692308787</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179204</v>
+        <v>1529.692184179218</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765495</v>
+        <v>1257.665779765509</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098908</v>
+        <v>1012.274025098922</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130162</v>
+        <v>784.8543544130298</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1518.10729979241</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
         <v>53.81800590148855</v>
@@ -4810,7 +4810,7 @@
         <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
         <v>1375.081325612185</v>
@@ -4819,10 +4819,10 @@
         <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
         <v>2670.060826431428</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.754649317545</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1948.65258993726</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.406870277317</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4995,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004239</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
@@ -5123,19 +5123,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5269,46 +5269,46 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681876</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.913654892427</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,40 +5524,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5597,13 +5597,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,16 +6229,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
         <v>5113.042013538981</v>
@@ -6247,7 +6247,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6384,34 +6384,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354658</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066013</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745624</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T28" t="n">
         <v>2454.80183470935</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6481,7 +6481,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6937,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
+        <v>3569.079287993934</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P35" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>693.7847748441449</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7420,13 +7420,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
@@ -7453,7 +7453,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2657.217000252138</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2411.337553830593</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2132.904553083698</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.949044954129</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954129</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.289898879841</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8145,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396094</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684613</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558610654</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611291</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368461</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684611</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684613</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.547214277231</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.074976719101</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.403831323842</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,22 +8458,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>88.52591951400996</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>750.2469944428863</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9479,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-6.040902026760094e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>243.3352893400963</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11068,16 +11068,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081423</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.6291869796181</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.592177662729</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>58.66873794568207</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>18.31929241554607</v>
       </c>
       <c r="D40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.50874676570933</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.56253959275671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>445409.5899107875</v>
+        <v>445409.5899107876</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448363.8136693018</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.8136693018</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.8136693018</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448363.8136693018</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448363.8136693019</v>
+        <v>448363.8136693018</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958881</v>
@@ -26322,40 +26322,40 @@
         <v>509339.9538958882</v>
       </c>
       <c r="E2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="J2" t="n">
+        <v>500514.7049304846</v>
+      </c>
+      <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>500514.7049304848</v>
+      </c>
+      <c r="M2" t="n">
         <v>500514.7049304847</v>
       </c>
-      <c r="K2" t="n">
-        <v>500514.7049304847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>500514.7049304847</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="N2" t="n">
-        <v>500514.7049304846</v>
-      </c>
       <c r="O2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501541</v>
+        <v>66587.76789501648</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998353</v>
+        <v>11527.59554998247</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877191</v>
+        <v>53045.85463877276</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622936</v>
+        <v>9392.301726622069</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955552</v>
+        <v>138489.2977955545</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020266</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020262</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="K4" t="n">
         <v>27684.07875020268</v>
@@ -26450,13 +26450,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
+        <v>27684.07875020263</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27684.07875020266</v>
+      </c>
+      <c r="O4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27684.07875020263</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27684.0787502026</v>
       </c>
       <c r="P4" t="n">
         <v>27684.07875020263</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722233</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800245</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126291.4786384939</v>
+        <v>126291.4786384936</v>
       </c>
       <c r="C6" t="n">
-        <v>232306.6743973151</v>
+        <v>232306.6743973145</v>
       </c>
       <c r="D6" t="n">
-        <v>292842.5335521271</v>
+        <v>292842.5335521281</v>
       </c>
       <c r="E6" t="n">
-        <v>212757.2783534399</v>
+        <v>212734.0540140572</v>
       </c>
       <c r="F6" t="n">
-        <v>395112.3875744897</v>
+        <v>395089.163235107</v>
       </c>
       <c r="G6" t="n">
-        <v>395112.3875744896</v>
+        <v>395089.163235107</v>
       </c>
       <c r="H6" t="n">
-        <v>395112.3875744897</v>
+        <v>395089.163235107</v>
       </c>
       <c r="I6" t="n">
-        <v>395112.3875744896</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="J6" t="n">
-        <v>284097.9222294993</v>
+        <v>284074.6978901167</v>
       </c>
       <c r="K6" t="n">
-        <v>342066.5329357176</v>
+        <v>342043.3085963341</v>
       </c>
       <c r="L6" t="n">
-        <v>385720.0858478666</v>
+        <v>385696.8615084849</v>
       </c>
       <c r="M6" t="n">
-        <v>242912.2166365018</v>
+        <v>242888.9922971193</v>
       </c>
       <c r="N6" t="n">
-        <v>395112.3875744895</v>
+        <v>395089.163235107</v>
       </c>
       <c r="O6" t="n">
-        <v>395112.3875744896</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="P6" t="n">
-        <v>395112.3875744896</v>
+        <v>395089.163235107</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684611</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483569</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939585</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483569</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939585</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483569</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939585</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>187.0780644725182</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.141139873183477</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>152.5502241698337</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>112.7567907279002</v>
+        <v>10.6051431204086</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>156.0789474939517</v>
       </c>
       <c r="D5" t="n">
-        <v>331.7267452270122</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.15449395819394</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>34.87526458554952</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="C8" t="n">
-        <v>268.691086801871</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28389,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.479625721185572e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.17252439128409e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.588025165587283e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-8.883072969800494e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30683,7 +30683,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.678833133814022e-12</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.172490809190208e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.289898879841</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396094</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684613</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558610654</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611291</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368461</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684611</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684613</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.547214277231</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.074976719101</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.403831323842</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>88.52591951400996</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>750.2469944428863</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36123,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907692</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36849,7 +36849,7 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-2.986857035790905e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>243.3352893400963</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37788,16 +37788,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
